--- a/biology/Médecine/Médecine_traditionnelle/Médecine_traditionnelle.xlsx
+++ b/biology/Médecine/Médecine_traditionnelle/Médecine_traditionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle</t>
+          <t>Médecine_traditionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la définition officielle de l'OMS, la médecine traditionnelle « se rapporte aux pratiques, méthodes, savoirs et croyances en matière de santé qui impliquent l’usage à des fins médicales de plantes, de parties d’animaux et de minéraux, de thérapies spirituelles, de techniques et d’exercices manuels – séparément ou en association – pour soigner, diagnostiquer et prévenir les maladies ou préserver la santé ».
 Dans les pays industrialisés, les adaptations de certaines pratiques de médecine traditionnelle sont nommées « complémentaires », « alternatives », « non conventionnelles », ou encore « parallèles », voire « pseudo-médecine » et font l'objet de controverse quant à leur nature non-scientifique. D'autres ont été intégrées à la médecine conventionnelle.
-L'OMS rappelle que l'usage inapproprié des médecines ou pratiques traditionnelles peut avoir des effets négatifs, voire dangereux[1].
+L'OMS rappelle que l'usage inapproprié des médecines ou pratiques traditionnelles peut avoir des effets négatifs, voire dangereux.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle</t>
+          <t>Médecine_traditionnelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Importance de la médecine traditionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En Afrique, Asie, Océanie et Amérique latine, différents pays font appel à la médecine traditionnelle :
 En Afrique, jusqu’à 80 % de la population a recours à la médecine traditionnelle pour les soins de santé primaires.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_traditionnelle</t>
+          <t>Médecine_traditionnelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
